--- a/InputFiles/CDS/TC04_CDS_phs001437_LibrarySource-Transcriptomic_LibraryLayout-PairedEnd.xlsx
+++ b/InputFiles/CDS/TC04_CDS_phs001437_LibrarySource-Transcriptomic_LibraryLayout-PairedEnd.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leungvw/git/Commons_Automation/InputFiles/CDS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8067F1B2-1755-724A-875D-9E4BDF36F72A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CDB7BCE-F393-284E-B2CC-FF19FA9196E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2660" yWindow="4420" windowWidth="29040" windowHeight="15840" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
+    <workbookView xWindow="3680" yWindow="4660" windowWidth="29040" windowHeight="15840" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -111,7 +111,85 @@
 LIMIT 100;</t>
   </si>
   <si>
-    <t>WITH Distinct_Samples AS (
+    <t>SELECT
+    DISTINCT smp.sample_id AS "Sample ID",
+    sp.participant_id AS "Participant ID", 
+    s.study_name AS "Study Name",
+    s.phs_accession AS Accession
+FROM 
+    df_participant sp
+JOIN 
+    df_study s ON sp."study.phs_accession" = s.phs_accession
+JOIN 
+    df_sample smp ON smp."participant.study_participant_id" = sp.study_participant_id
+JOIN
+    df_diagnosis d ON d."participant.study_participant_id" = sp.study_participant_id
+JOIN
+    df_program p ON p.program_acronym = s."program.program_acronym"
+WHERE 
+    s.phs_accession = 'phs001437'
+    AND EXISTS (
+        SELECT 1
+        FROM df_file f1
+        JOIN df_genomic_info gi ON gi."file.file_id" = f1.file_id
+        WHERE f1."sample.sample_id" = smp.sample_id
+          AND (gi.library_source = 'Transcriptomic' OR gi.library_source = 'Genomic')  -- Allow both RNA and DNA
+          AND gi.library_layout = 'Paired-End'
+    )
+ORDER BY 
+    smp.sample_id ASC
+LIMIT 100;</t>
+  </si>
+  <si>
+    <t>WITH ParticipantsWithTranscriptomic AS (
+    SELECT DISTINCT sp.participant_id
+    FROM df_participant sp
+    JOIN df_study s ON sp."study.phs_accession" = s.phs_accession
+    JOIN df_sample smp ON smp."participant.study_participant_id" = sp.study_participant_id
+    JOIN df_file f ON f."sample.sample_id" = smp.sample_id
+    JOIN df_genomic_info gi ON gi."file.file_id" = f.file_id
+    WHERE s.phs_accession = 'phs001437'
+      AND gi.library_source = 'Transcriptomic'
+      AND gi.library_layout = 'Paired-End'
+),
+AllSamples AS (
+    SELECT DISTINCT smp.sample_id
+    FROM df_participant sp
+    JOIN df_study s ON sp."study.phs_accession" = s.phs_accession
+    JOIN df_sample smp ON smp."participant.study_participant_id" = sp.study_participant_id
+    WHERE s.phs_accession = 'phs001437'
+      AND sp.participant_id IN (SELECT participant_id FROM ParticipantsWithTranscriptomic)
+)
+SELECT
+    COUNT(DISTINCT s.study_name) AS "Studies",
+    COUNT(DISTINCT sp.participant_id) AS "Participants",
+    (SELECT COUNT(sample_id) FROM AllSamples) AS "Samples",
+    COUNT(DISTINCT f.file_id) AS "Files"
+FROM df_participant sp
+JOIN df_study s ON sp."study.phs_accession" = s.phs_accession
+JOIN df_sample smp ON smp."participant.study_participant_id" = sp.study_participant_id
+JOIN df_file f ON f."sample.sample_id" = smp.sample_id
+JOIN df_genomic_info gi ON gi."file.file_id" = f.file_id
+JOIN df_program p ON p.program_acronym = s."program.program_acronym"
+JOIN df_diagnosis d ON d."participant.study_participant_id" = sp.study_participant_id
+WHERE s.phs_accession = 'phs001437'
+  AND gi.library_source = 'Transcriptomic'
+  AND gi.library_layout = 'Paired-End'
+  AND sp.participant_id IN (SELECT participant_id FROM ParticipantsWithTranscriptomic);</t>
+  </si>
+  <si>
+    <t>WITH ParticipantsWithTranscriptomic AS (
+    SELECT DISTINCT sp.participant_id
+    FROM df_participant sp
+    JOIN df_study s ON sp."study.phs_accession" = s.phs_accession
+    JOIN df_sample smp ON smp."participant.study_participant_id" = sp.study_participant_id
+    JOIN df_file f ON f."sample.sample_id" = smp.sample_id
+    JOIN df_genomic_info gi ON gi."file.file_id" = f.file_id
+    WHERE s.phs_accession = 'phs001437'
+      AND gi.library_source = 'Transcriptomic'
+      AND gi.library_layout = 'Paired-End'
+),
+Distinct_Samples AS (
     SELECT DISTINCT
         sp.participant_id,
         sp.study_participant_id,
@@ -131,14 +209,7 @@
         df_program p ON p.program_acronym = s."program.program_acronym"
     WHERE 
         s.phs_accession = 'phs001437'
-        AND EXISTS (
-            SELECT 1
-            FROM df_file f1
-            JOIN df_genomic_info gi ON gi."file.file_id" = f1.file_id
-            WHERE f1."sample.sample_id" = smp.sample_id
-              AND gi.library_source = 'Transcriptomic'
-              AND gi.library_layout = 'Paired-End'
-        )
+        AND sp.participant_id IN (SELECT participant_id FROM ParticipantsWithTranscriptomic)
 ),
 Sample_Limit AS (
     SELECT
@@ -175,65 +246,6 @@
     gender
 ORDER BY CAST(participant_id AS TEXT)
 LIMIT 100;</t>
-  </si>
-  <si>
-    <t>SELECT
-    DISTINCT smp.sample_id AS "Sample ID",
-    sp.participant_id AS "Participant ID", 
-    s.study_name AS "Study Name",
-    s.phs_accession AS Accession
-FROM 
-    df_participant sp
-JOIN 
-    df_study s ON sp."study.phs_accession" = s.phs_accession
-JOIN 
-    df_sample smp ON smp."participant.study_participant_id" = sp.study_participant_id
-JOIN
-    df_diagnosis d ON d."participant.study_participant_id" = sp.study_participant_id
-JOIN
-    df_program p ON p.program_acronym = s."program.program_acronym"
-WHERE 
-    s.phs_accession = 'phs001437'
-    AND EXISTS (
-        SELECT 1
-        FROM df_file f1
-        JOIN df_genomic_info gi ON gi."file.file_id" = f1.file_id
-        WHERE f1."sample.sample_id" = smp.sample_id
-          AND (gi.library_source = 'Transcriptomic' OR gi.library_source = 'Genomic')  -- Allow both RNA and DNA
-          AND gi.library_layout = 'Paired-End'
-    )
-ORDER BY 
-    smp.sample_id ASC
-LIMIT 100;</t>
-  </si>
-  <si>
-    <t>WITH ParticipantsWithTranscriptomic AS (
-    SELECT DISTINCT sp.participant_id
-    FROM df_participant sp
-    JOIN df_study s ON sp."study.phs_accession" = s.phs_accession
-    JOIN df_sample smp ON smp."participant.study_participant_id" = sp.study_participant_id
-    JOIN df_file f ON f."sample.sample_id" = smp.sample_id
-    JOIN df_genomic_info gi ON gi."file.file_id" = f.file_id
-    WHERE s.phs_accession = 'phs001437'
-      AND gi.library_source = 'Transcriptomic'
-      AND gi.library_layout = 'Paired-End'
-)
-SELECT
-    COUNT(DISTINCT s.study_name) AS "Studies",
-    COUNT(DISTINCT sp.participant_id) AS "Participants",
-    COUNT(DISTINCT smp.sample_id) AS "Samples",
-    COUNT(DISTINCT f.file_id) AS "Files"
-FROM df_participant sp
-JOIN df_study s ON sp."study.phs_accession" = s.phs_accession
-JOIN df_sample smp ON smp."participant.study_participant_id" = sp.study_participant_id
-JOIN df_file f ON f."sample.sample_id" = smp.sample_id
-JOIN df_genomic_info gi ON gi."file.file_id" = f.file_id
-JOIN df_program p ON p.program_acronym = s."program.program_acronym"
-JOIN df_diagnosis d ON d."participant.study_participant_id" = sp.study_participant_id
-WHERE s.phs_accession = 'phs001437'
-  AND gi.library_source = 'Transcriptomic'
-  AND gi.library_layout = 'Paired-End'
-  AND sp.participant_id IN (SELECT participant_id FROM ParticipantsWithTranscriptomic);</t>
   </si>
 </sst>
 </file>
@@ -636,7 +648,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -668,11 +680,11 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>11</v>
+      <c r="B2" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
@@ -686,7 +698,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="3"/>
     </row>
